--- a/results/best_stocks_2023.06.01-2023.06.15.xlsx
+++ b/results/best_stocks_2023.06.01-2023.06.15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,18 +461,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>대전일보</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>송봉섭 삼성전자서비스 대표 한국능률협회컨설팅 특별 공헌상 수상</t>
+          <t>삼성전자 반도체 인재 양성 지원 확대</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -481,18 +481,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>대전일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>삼성전자 반도체 인재 양성 지원 확대</t>
+          <t>자동차칩에 들어갈  삼성 와 함께 개발</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -501,18 +501,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>자동차칩에 들어갈  삼성 와 함께 개발</t>
+          <t xml:space="preserve"> 오른 한미반도체 수혜</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -521,18 +521,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 오른 한미반도체 수혜</t>
+          <t>삼성 유럽 개국까지 자가수리 프로그램 확대</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -541,18 +541,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>삼성 유럽 개국까지 자가수리 프로그램 확대</t>
+          <t>한베트남 경협 시대 역대급 사절단 수주 잭팟 잇는다</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>한베트남 경협 시대 역대급 사절단 수주 잭팟 잇는다</t>
+          <t>애플페이 결제 키오스크 얼마 자영업자 문의 급증</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -581,18 +581,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>애플페이 결제 키오스크 얼마 자영업자 문의 급증</t>
+          <t>상속세 없애니 세수 늘고 경제 회복후손에  더 키울 기회 줘야</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -601,18 +601,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>상속세 없애니 세수 늘고 경제 회복후손에  더 키울 기회 줘야</t>
+          <t>레이더 에어퍼스트 인수전 성장 전략이 승패 갈라</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -621,18 +621,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>동아일보언론사 선정</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>레이더 에어퍼스트 인수전 성장 전략이 승패 갈라</t>
+          <t>반도체 부진에 기업 성장수익안정성 모두 악화</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,18 +641,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>동아일보언론사 선정</t>
+          <t>한겨레언론사 선정</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>반도체 부진에 기업 성장수익안정성 모두 악화</t>
+          <t>인도 쳐다보는 기업들빛바랜 투자 중국 데자뷔 우려도</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -661,18 +661,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한겨레언론사 선정</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>인도 쳐다보는 기업들빛바랜 투자 중국 데자뷔 우려도</t>
+          <t>프리미엄폰 소비 급증 대 중 대 백만원대</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -681,18 +681,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>프리미엄폰 소비 급증 대 중 대 백만원대</t>
+          <t>파리서 영어 연설한 윤 대통령 부산엑스포로  개발 경험 공유</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -701,18 +701,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>파리서 영어 연설한 윤 대통령 부산엑스포로  개발 경험 공유</t>
+          <t xml:space="preserve"> 역동적 미래 만들자베트남 교역 조로 배 확대</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1221,18 +1221,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>이익 반토막인데 연봉은 상승상장사 인건비만 조 늘었다</t>
+          <t>업황 악화에 미중갈등까지   반도체 소부장 직격탄</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1241,18 +1241,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>매일신문</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>수도권 반도체 전력 수급난 심각안정적인 전력 공급 가능한 구미시 주목</t>
+          <t>업황 악화에 미중갈등까지   반도체 소부장 직격탄</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1261,18 +1261,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>매일신문</t>
+          <t>머니투데이</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>수도권 반도체 전력 수급난 심각안정적인 전력 공급 가능한 구미시 주목</t>
+          <t>이익 반토막인데 연봉은 상승상장사 인건비만 조 늘었다</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1281,18 +1281,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>매일신문</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>지정학 리스크불황 위기 상황별로 점검하자대그룹 하반기도 고민 깊</t>
+          <t>수도권 반도체 전력 수급난 심각안정적인 전력 공급 가능한 구미시 주목</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1301,18 +1301,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>매일신문</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>인텔 이스라엘 반도체시설에 조원 투입공급망 확대</t>
+          <t>수도권 반도체 전력 수급난 심각안정적인 전력 공급 가능한 구미시 주목</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1321,18 +1321,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>아시아경제</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>침체된 평택 삼성반도체 현장 입주 폭탄 우려 삼성캠퍼스 평택지제지구</t>
+          <t>지정학 리스크불황 위기 상황별로 점검하자대그룹 하반기도 고민 깊</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>세계일보언론사 선정</t>
+          <t>이데일리</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>연구개발비 등 포함 기술유출 피해액 산정 기준 마련 시급 심층기획탈취</t>
+          <t>인텔 이스라엘 반도체시설에 조원 투입공급망 확대</t>
         </is>
       </c>
     </row>
@@ -1361,18 +1361,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>엔저기업실적 개선투자확대경제 선순환 진입 문턱</t>
+          <t>침체된 평택 삼성반도체 현장 입주 폭탄 우려 삼성캠퍼스 평택지제지구</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1381,18 +1381,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>이데일리언론사 선정</t>
+          <t>세계일보언론사 선정</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>엔저기업실적 개선투자확대경제 선순환 진입 문턱</t>
+          <t>연구개발비 등 포함 기술유출 피해액 산정 기준 마련 시급 심층기획탈취</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1401,18 +1401,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>중앙일보</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>기업 곳 중 곳 하반기 투자확대 계획 없다</t>
+          <t>엔저기업실적 개선투자확대경제 선순환 진입 문턱</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1421,18 +1421,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>이데일리언론사 선정</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>클리카  모델 최대  축소 성능은 최대치 유지 자동 초경량화 솔루션</t>
+          <t>엔저기업실적 개선투자확대경제 선순환 진입 문턱</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1441,18 +1441,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>서울신문</t>
+          <t>중앙일보</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>하원 틱톡금지법 본회의에 한국기업도 제재 대상 포함 우려</t>
+          <t>기업 곳 중 곳 하반기 투자확대 계획 없다</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1461,18 +1461,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>반도체 호재에  동탄 미분양도 완판</t>
+          <t>클리카  모델 최대  축소 성능은 최대치 유지 자동 초경량화 솔루션</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1481,18 +1481,18 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>서울신문</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>챗봇 바드 개발한 구글도 사내에선  사용 제한</t>
+          <t>하원 틱톡금지법 본회의에 한국기업도 제재 대상 포함 우려</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1501,18 +1501,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>콤팩트시티 호재에도 평택 시장 아직은 잠잠</t>
+          <t>반도체 호재에  동탄 미분양도 완판</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1521,18 +1521,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>문화일보</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>포럼기업 여건 위 개선 위한 특단 대책</t>
+          <t>챗봇 바드 개발한 구글도 사내에선  사용 제한</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1541,18 +1541,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>단상 전략동반자 베트남과의 기술협력 확대</t>
+          <t>콤팩트시티 호재에도 평택 시장 아직은 잠잠</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1561,18 +1561,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>톡이통사 오픈랜 협의체 리더십 선도해야</t>
+          <t>포럼기업 여건 위 개선 위한 특단 대책</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1581,18 +1581,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>추경호 대기업 경영진 만나 규제 개선 조세 지원</t>
+          <t>단상 전략동반자 베트남과의 기술협력 확대</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1601,18 +1601,18 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>세계일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>대부분 고의 유출 증거 확보입증 어려워 전담 수사 부서 늘리고 전문 인</t>
+          <t>톡이통사 오픈랜 협의체 리더십 선도해야</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1621,122 +1621,122 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>반도체주 훈풍에도 하이텍 소외경영권 분쟁에 외인 이탈 실적 불투명</t>
+          <t>추경호 대기업 경영진 만나 규제 개선 조세 지원</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>세계일보</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>카카오페이 배송 제휴처 확대빅테크 경쟁 활발</t>
+          <t>대부분 고의 유출 증거 확보입증 어려워 전담 수사 부서 늘리고 전문 인</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>아시아경제</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>전자랜드 긴 장마 예보에 제습 가전 판매 급증</t>
+          <t>반도체주 훈풍에도 하이텍 소외경영권 분쟁에 외인 이탈 실적 불투명</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>국민일보</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  글로벌기업에 투자인력 밀려 헬스케어 등 특화로 돌파</t>
+          <t>단독 금감원 투자손실 보전 의혹 증권 검사 나선다</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>아시아경제언론사 선정</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">단독스마트골프 경영권 분쟁원조 슈퍼개미 김성진은 왜 장외기업 인수에 </t>
+          <t>텔레콤 실리콘밸리에서  동맹 확대강화 선언</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>머니투데이</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>이노션 미디어렙사 품었다디플랜 인수</t>
+          <t>에코플랜트카자흐스탄 알마티 순환도로 개통해외수주 물꼬</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1746,257 +1746,257 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>증권사  뭉칫돈반년 만에 조 급증</t>
+          <t>와 밀착하는 디스커버리백신당뇨 복합제이어 추가 수주 확대하나</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">한국투자증권 오픈에셋과 토큰증권시스템 개발 </t>
+          <t>와 밀착하는 디스커버리백신당뇨 복합제이어 추가 수주 확대하나</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>디플랜 품은 이노션 디지털 역량 확대</t>
+          <t>수소경제 수혜 해운대기업서 인수 가능성도</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>네이버클라우드 협업툴 네이버웍스에 생성  하이퍼클로바  적용</t>
+          <t>수소경제 수혜 해운대기업서 인수 가능성도</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>경향신문언론사 선정</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>이노션 디지털 마케팅사 디플랜 인수</t>
+          <t>한국 계정 공유 금지 시기망 사용료민감 이슈 즉답 피한 넷플릭스</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>매일신문</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>박남서 시장 일상회복 착착착 나눔캠페인 영주시 호 참여</t>
+          <t xml:space="preserve"> 년만에 런던증권거래소 상장 폐지</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>학습한적 없는데 읽어낸다 팀 캡셔닝  위  캡셔닝  최초</t>
+          <t>호수공원 품은 아파트 잘 나가네전주청주 분양 주목</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>서울경제언론사 선정</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>노동법 지키는  개발제 노무인생 큰 보람이죠</t>
+          <t>서울 아파트 입주량 내년 만가구 반토막 집슐랭</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>문화일보</t>
+          <t>한국일보</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>이노션 디플랜 인수해 디지털 광고시장 공략</t>
+          <t>스토리텔링 극찬한 넷플릭스  계정 공유 금지 질문엔 즉답 피했다</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>시그널 한국투자증권 자기자본 조 돌파신사업 추진 탄력</t>
+          <t>한화오션삼성 업황 개선에 조선 들썩</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>이노션  디플랜 인수 디지털 마케팅 역량 강화</t>
+          <t xml:space="preserve">  동맹 확대해 구글와 경쟁</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>한국일보</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>이노션 디지털 마케팅사 디플랜 인수</t>
+          <t>상반기 사이버공격  급증 제조업 기밀 줄줄 샌다</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>카뱅  성장 잠재력 크다 낙점 인접국으로 외연 확대에도 유리</t>
+          <t xml:space="preserve"> 컴퍼니 도약 위한 미래인재 육성 앞장</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2006,73 +2006,73 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>온라인 플랫폼 특별법 산업 경쟁력 약화 부작용 우려소탐대실 말아야</t>
+          <t>파워큐브세미   전력반도체 개발고성능고효율 기술 경쟁 가세</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>온라인 플랫폼 특별법 산업 경쟁력 약화 부작용 우려소탐대실 말아야</t>
+          <t>실리콘밸리 간  동맹 확대 선언</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>국민일보</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>공정위방통위과기부 협업 부재 온플법 차전</t>
+          <t>뉴스터치울산 수소산업 협의체 발족개 단체 참여</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>사설정부는 플랫폼 산업 육성 의지 있나</t>
+          <t>유럽 수주 바람분다해상풍력주 상승 기류</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2081,18 +2081,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>파이낸셜뉴스언론사 선정</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>와 밀착하는 디스커버리백신당뇨 복합제이어 추가 수주 확대하나</t>
+          <t>글로벌 증시 강세장 진입 상승 이어갈 실적주 주목슐랭 가이드</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2101,18 +2101,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>파이낸셜뉴스언론사 선정</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>와 밀착하는 디스커버리백신당뇨 복합제이어 추가 수주 확대하나</t>
+          <t>글로벌 증시 강세장 진입 상승 이어갈 실적주 주목슐랭 가이드</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2121,18 +2121,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>국민일보</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>단독 금감원 투자손실 보전 의혹 증권 검사 나선다</t>
+          <t>코스닥 공시 우원개발  나이스정보통신  강원에너지</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2141,18 +2141,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>텔레콤 실리콘밸리에서  동맹 확대강화 선언</t>
+          <t>반환 딛고 반전 쓴다중꺾마 신약개발</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2161,18 +2161,18 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>에코플랜트카자흐스탄 알마티 순환도로 개통해외수주 물꼬</t>
+          <t xml:space="preserve"> 반도체 수혜이수페타시스 신고가 행진</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2181,18 +2181,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>경향신문언론사 선정</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>한국 계정 공유 금지 시기망 사용료민감 이슈 즉답 피한 넷플릭스</t>
+          <t>롯데렌탈 중고차 장기렌털 확장 수익성 개선 기대</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2201,18 +2201,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 년만에 런던증권거래소 상장 폐지</t>
+          <t>산업단지 유치 기상청방사청 이전 잇단 호재에 대전 부동산 꿈틀</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2221,478 +2221,478 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>서울경제언론사 선정</t>
+          <t>서울신문</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>서울 아파트 입주량 내년 만가구 반토막 집슐랭</t>
+          <t>경쟁사 늘고 매물도 없고 우리금융 증권사 인수 쉽지 않네</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>한국일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>스토리텔링 극찬한 넷플릭스  계정 공유 금지 질문엔 즉답 피했다</t>
+          <t>카카오페이 배송 제휴처 확대빅테크 경쟁 활발</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>한화오션삼성 업황 개선에 조선 들썩</t>
+          <t>전자랜드 긴 장마 예보에 제습 가전 판매 급증</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  동맹 확대해 구글와 경쟁</t>
+          <t xml:space="preserve">  글로벌기업에 투자인력 밀려 헬스케어 등 특화로 돌파</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>아시아경제언론사 선정</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>상반기 사이버공격  급증 제조업 기밀 줄줄 샌다</t>
+          <t xml:space="preserve">단독스마트골프 경영권 분쟁원조 슈퍼개미 김성진은 왜 장외기업 인수에 </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 컴퍼니 도약 위한 미래인재 육성 앞장</t>
+          <t>이노션 미디어렙사 품었다디플랜 인수</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>파워큐브세미   전력반도체 개발고성능고효율 기술 경쟁 가세</t>
+          <t>증권사  뭉칫돈반년 만에 조 급증</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>실리콘밸리 간  동맹 확대 선언</t>
+          <t xml:space="preserve">한국투자증권 오픈에셋과 토큰증권시스템 개발 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>뉴스터치울산 수소산업 협의체 발족개 단체 참여</t>
+          <t>이노션 디플랜 인수미디어 마케팅 서비스 강화</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>유럽 수주 바람분다해상풍력주 상승 기류</t>
+          <t>네이버클라우드 협업툴 네이버웍스에 생성  하이퍼클로바  적용</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스언론사 선정</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>글로벌 증시 강세장 진입 상승 이어갈 실적주 주목슐랭 가이드</t>
+          <t>이노션 디지털 마케팅사 디플랜 인수</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스언론사 선정</t>
+          <t>매일신문</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>글로벌 증시 강세장 진입 상승 이어갈 실적주 주목슐랭 가이드</t>
+          <t>박남서 시장 일상회복 착착착 나눔캠페인 영주시 호 참여</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>코스닥 공시 우원개발  나이스정보통신  강원에너지</t>
+          <t>학습한적 없는데 읽어낸다 팀 캡셔닝  위  캡셔닝  최초</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>반환 딛고 반전 쓴다중꺾마 신약개발</t>
+          <t>노동법 지키는  개발제 노무인생 큰 보람이죠</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 반도체 수혜이수페타시스 신고가 행진</t>
+          <t>이노션 디플랜 인수해 디지털 광고시장 공략</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>전경련 찾은 추경호 공격적 투자로 수출확대 힘써달라</t>
+          <t>시그널 한국투자증권 자기자본 조 돌파신사업 추진 탄력</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>롯데렌탈 중고차 장기렌털 확장 수익성 개선 기대</t>
+          <t>이노션  디플랜 인수 디지털 마케팅 역량 강화</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>한국일보</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>산업단지 유치 기상청방사청 이전 잇단 호재에 대전 부동산 꿈틀</t>
+          <t>이노션 디지털 마케팅사 디플랜 인수</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>서울신문</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>경쟁사 늘고 매물도 없고 우리금융 증권사 인수 쉽지 않네</t>
+          <t>카뱅  성장 잠재력 크다 낙점 인접국으로 외연 확대에도 유리</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>단독  아이돌플러스 축소엔터 플랫폼 사업 개편한다</t>
+          <t>온라인 플랫폼 특별법 산업 경쟁력 약화 부작용 우려소탐대실 말아야</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>방통위  디즈니 억지 가입 개선 명령</t>
+          <t>온라인 플랫폼 특별법 산업 경쟁력 약화 부작용 우려소탐대실 말아야</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>국민일보</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 드라마 밤이 되었습니다 제작  확보 주력</t>
+          <t>공정위방통위과기부 협업 부재 온플법 차전</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>정철동 이노텍 사장 글로벌 인재 확보 속도첫 외국인 인턴십</t>
+          <t>사설정부는 플랫폼 산업 육성 의지 있나</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>외국인 유학생도 인턴으로 이노텍 인턴십 문 확대</t>
+          <t xml:space="preserve">고려대 학계 최초 한국어 특화 대규모언어모델 공개 생성 기여 </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2701,18 +2701,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>동아일보언론사 선정</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>글로벌  경쟁 기술서 책임감 단계로허위뉴스 등 부작용 이용</t>
+          <t>단독  아이돌플러스 축소엔터 플랫폼 사업 개편한다</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2721,18 +2721,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>매일경제언론사 선정</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>재계  세액공제    확대를</t>
+          <t>방통위  디즈니 억지 가입 개선 명령</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2741,18 +2741,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>시장 해부철옹성 깬 알뜰폰자생력 확보는 숙제</t>
+          <t xml:space="preserve"> 드라마 밤이 되었습니다 제작  확보 주력</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2761,18 +2761,18 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>경향신문</t>
+          <t>이데일리</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>최형우  최초 타점이승엽 넘었다</t>
+          <t>정철동 이노텍 사장 글로벌 인재 확보 속도첫 외국인 인턴십</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2781,18 +2781,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>매일경제</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>투자금 조 상회중부권 최대 친환경 데이터센터 구축 첫삽</t>
+          <t>외국인 유학생도 인턴으로 이노텍 인턴십 문 확대</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2801,18 +2801,18 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>전자신문언론사 선정</t>
+          <t>동아일보언론사 선정</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>정부 로 공문서 작성민관 협력 시범 서비스 개발 돌입</t>
+          <t>글로벌  경쟁 기술서 책임감 단계로허위뉴스 등 부작용 이용</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2821,18 +2821,18 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>매일경제언론사 선정</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>전고체 초격차 기술 선점 승부수배터리완성차 경쟁 가속</t>
+          <t>재계  세액공제    확대를</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2841,18 +2841,18 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>아시아경제</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>테크 현장을 가다루츠랩 최초만 개발하는 업사이클링 대체 소재</t>
+          <t>시장 해부철옹성 깬 알뜰폰자생력 확보는 숙제</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2861,18 +2861,18 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>전자신문</t>
+          <t>경향신문</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>테크 현장을 가다루츠랩 최초만 개발하는 업사이클링 대체 소재</t>
+          <t>최형우  최초 타점이승엽 넘었다</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2881,18 +2881,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>조선일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>기업 브리핑 벤츠 사회복지기관에 차량 대 기증 외</t>
+          <t>투자금 조 상회중부권 최대 친환경 데이터센터 구축 첫삽</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2901,18 +2901,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>부산일보언론사 선정</t>
+          <t>전자신문언론사 선정</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>대기업 창업주 스토리 콘텐츠로 개발 일석이조 노린다</t>
+          <t>정부 로 공문서 작성민관 협력 시범 서비스 개발 돌입</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2921,18 +2921,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>머니투데이</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>과기정통부 단통법 추가지원금 방통위와 협의이견 없다</t>
+          <t>전고체 초격차 기술 선점 승부수배터리완성차 경쟁 가속</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2941,138 +2941,138 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>동아일보</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>정부 미디어콘텐츠 육성에 억 지원 넷플릭스 등 글로벌 와 격차</t>
+          <t>테크 현장을 가다루츠랩 최초만 개발하는 업사이클링 대체 소재</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>헤럴드경제</t>
+          <t>전자신문</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>엔솔 글로벌 스타트업 협력 확대고객가치 극대화</t>
+          <t>테크 현장을 가다루츠랩 최초만 개발하는 업사이클링 대체 소재</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>전자신문언론사 선정</t>
+          <t>조선일보</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>코스모신소재 화학에 억 규모 하이니켈 양극재 공급</t>
+          <t>기업 브리핑 벤츠 사회복지기관에 차량 대 기증 외</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>부산일보언론사 선정</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>클릭 이 종목 화학이 지분판다 소식에 에너지솔루션  급락</t>
+          <t>대기업 창업주 스토리 콘텐츠로 개발 일석이조 노린다</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>한국경제언론사 선정</t>
+          <t>머니투데이</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>화학 엔솔 지분 조 판다업계 설비 투자금 확보용</t>
+          <t>과기정통부 단통법 추가지원금 방통위와 협의이견 없다</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스언론사 선정</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>처음 본 이미지 술술 설명 생성형  진화 보여준   캡셔닝  최초</t>
+          <t>전경련 찾은 추경호 공격적 투자로 수출확대 힘써달라</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>서울신문</t>
+          <t>동아일보</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>전기차에 년간 조 쏟아붓는 현대차 사업은 체질 개선</t>
+          <t>정부 미디어콘텐츠 육성에 억 지원 넷플릭스 등 글로벌 와 격차</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3081,18 +3081,18 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>서 기술력사업성 인정 온 총 조천억 확보</t>
+          <t>엔솔 글로벌 스타트업 협력 확대고객가치 극대화</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3101,18 +3101,18 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>아시아경제언론사 선정</t>
+          <t>전자신문언론사 선정</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>공모주 청약에 조억 끌어모은 알멕 가격제한폭 확대 덕분</t>
+          <t>코스모신소재 화학에 억 규모 하이니켈 양극재 공급</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3121,18 +3121,18 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>디지털타임스</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>생존 기로에 선 석화업계체질 개선해 불황 터널 탈출한다</t>
+          <t>클릭 이 종목 화학이 지분판다 소식에 에너지솔루션  급락</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3141,18 +3141,18 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>한국경제언론사 선정</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>생존 기로에 선 석화업계체질 개선해 불황 터널 탈출한다</t>
+          <t>화학 엔솔 지분 조 판다업계 설비 투자금 확보용</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3161,18 +3161,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>디지털타임스</t>
+          <t>파이낸셜뉴스언론사 선정</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 보조금까지 호재 겹친 온 첫 분기 흑자 성큼</t>
+          <t>처음 본 이미지 술술 설명 생성형  진화 보여준   캡셔닝  최초</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3181,18 +3181,18 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>대전일보</t>
+          <t>서울신문</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>청주시이차전지 글로벌 선도도시국가 브랜드 대상 수상</t>
+          <t>전기차에 년간 조 쏟아붓는 현대차 사업은 체질 개선</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3206,13 +3206,13 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>태양광 동시투자 한화자산운용  상장</t>
+          <t>서 기술력사업성 인정 온 총 조천억 확보</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3221,10 +3221,130 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>아시아경제언론사 선정</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>공모주 청약에 조억 끌어모은 알멕 가격제한폭 확대 덕분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>생존 기로에 선 석화업계체질 개선해 불황 터널 탈출한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>생존 기로에 선 석화업계체질 개선해 불황 터널 탈출한다</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>디지털타임스</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 보조금까지 호재 겹친 온 첫 분기 흑자 성큼</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>대전일보</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>청주시이차전지 글로벌 선도도시국가 브랜드 대상 수상</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>매일경제</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>태양광 동시투자 한화자산운용  상장</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>헤럴드경제</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t xml:space="preserve">  원년 선포 얼티움 확대 주력</t>
         </is>
